--- a/Presentations/Max_thresholds.xlsx
+++ b/Presentations/Max_thresholds.xlsx
@@ -30,6 +30,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">t</t>
     </r>
@@ -39,6 +40,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -49,6 +51,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">t</t>
     </r>
@@ -58,6 +61,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -106,11 +110,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -132,15 +137,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -232,12 +232,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -256,10 +256,10 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
@@ -275,30 +275,121 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.296892341842397"/>
-          <c:y val="0.258416717342031"/>
-          <c:w val="0.38788013318535"/>
-          <c:h val="0.483000718668804"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
-        <c:varyColors val="0"/>
+      <c:stockChart>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Word2Vec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FUZZY_MATCH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BERT-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BERT-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberta-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberta-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Distilbert-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BERT-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BERT-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roberta-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>roberta-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>distilbert-base-nli-mean-tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
@@ -310,46 +401,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$13</c:f>
@@ -440,157 +491,91 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>t2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+        <c:hiLowLines>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln w="28800">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:bevel/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
             </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Word2Vec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FUZZY_MATCH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BERT-base-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BERT-large-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Roberta-base-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Roberta-large-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Distilbert-base-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BERT-base-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BERT-large-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>roberta-base-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>roberta-large-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>distilbert-base-nli-mean-tokens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="94977873"/>
-        <c:axId val="81692245"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="94977873"/>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="b3b3b3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="63734809"/>
+        <c:axId val="913126"/>
+      </c:stockChart>
+      <c:dateAx>
+        <c:axId val="63734809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913126"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="913126"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
@@ -622,111 +607,41 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81692245"/>
+        <c:crossAx val="63734809"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="81692245"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="dddddd"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>t1</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.23244363046807"/>
-              <c:y val="0.524247299471386"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="94977873"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -743,16 +658,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>646560</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68760</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -760,8 +675,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3722760" y="38160"/>
-        <a:ext cx="11990160" cy="7831440"/>
+        <a:off x="4639680" y="1188360"/>
+        <a:ext cx="9701640" cy="6239520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -782,10 +697,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
   </cols>

--- a/Presentations/Max_thresholds.xlsx
+++ b/Presentations/Max_thresholds.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ph.D\Research\EMR-Interoperability\Presentations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Method</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <r>
@@ -31,7 +36,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">t</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -40,7 +45,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
   </si>
   <si>
@@ -50,7 +55,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">t</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -59,88 +64,59 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Word2Vec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUZZY_MATCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERT-base-nli-stsb-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERT-large-nli-stsb-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberta-base-nli-stsb-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberta-large-nli-stsb-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distilbert-base-nli-stsb-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERT-base-nli-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERT-large-nli-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roberta-base-nli-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roberta-large-nli-mean-tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distilbert-base-nli-mean-tokens</t>
+    <t>Word2Vec</t>
+  </si>
+  <si>
+    <t>FUZZY_MATCH</t>
+  </si>
+  <si>
+    <t>BERT-base-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>BERT-large-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>Roberta-base-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>Roberta-large-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>Distilbert-base-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>BERT-base-nli-mean-tokens</t>
+  </si>
+  <si>
+    <t>BERT-large-nli-mean-tokens</t>
+  </si>
+  <si>
+    <t>roberta-base-nli-mean-tokens</t>
+  </si>
+  <si>
+    <t>roberta-large-nli-mean-tokens</t>
+  </si>
+  <si>
+    <t>distilbert-base-nli-mean-tokens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -154,64 +130,41 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -270,15 +223,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -287,10 +258,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.296892341842397"/>
-          <c:y val="0.258416717342031"/>
-          <c:w val="0.38788013318535"/>
-          <c:h val="0.483000718668804"/>
+          <c:x val="0.29689234184239699"/>
+          <c:y val="0.12512025353720752"/>
+          <c:w val="0.42190729802221655"/>
+          <c:h val="0.61629713823460908"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -311,9 +282,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -328,27 +296,54 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7836468993460506E-2"/>
+                  <c:y val="3.2511334167875648E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5039-42F2-A7D1-3A9675C9BCF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -439,6 +434,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5039-42F2-A7D1-3A9675C9BCF5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -455,9 +455,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -467,20 +464,28 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -488,8 +493,15 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -580,7 +592,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5039-42F2-A7D1-3A9675C9BCF5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="94977873"/>
         <c:axId val="81692245"/>
       </c:radarChart>
@@ -595,7 +620,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -607,7 +632,7 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -616,10 +641,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81692245"/>
@@ -640,20 +666,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="dddddd"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -661,12 +678,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>t1</a:t>
@@ -678,8 +695,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.23244363046807"/>
-              <c:y val="0.524247299471386"/>
+              <c:x val="0.23244363046807001"/>
+              <c:y val="0.52424729947138604"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -697,7 +714,7 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -706,10 +723,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94977873"/>
@@ -717,9 +735,7 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -727,20 +743,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -754,14 +776,14 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3722760" y="38160"/>
-        <a:ext cx="11990160" cy="7831440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -774,23 +796,281 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,146 +1081,303 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>0.05</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>0.7</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>0.85</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>0.85</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>0.85</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>0.85</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>0.85</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>0.75</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C12" s="1" t="n">
+      <c r="B12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.95</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Presentations/Max_thresholds.xlsx
+++ b/Presentations/Max_thresholds.xlsx
@@ -30,7 +30,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">t</t>
     </r>
@@ -40,7 +39,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -51,7 +49,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">t</t>
     </r>
@@ -61,7 +58,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -110,12 +106,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -137,10 +132,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -232,12 +232,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -256,10 +256,10 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
@@ -275,17 +275,174 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:stockChart>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.296892341842397"/>
+          <c:y val="0.258416717342031"/>
+          <c:w val="0.38788013318535"/>
+          <c:h val="0.483000718668804"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Word2Vec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FUZZY_MATCH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BERT-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BERT-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberta-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Roberta-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Distilbert-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BERT-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BERT-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roberta-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>roberta-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>distilbert-base-nli-mean-tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
@@ -297,6 +454,43 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$13</c:f>
@@ -387,195 +581,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>t1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Word2Vec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FUZZY_MATCH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BERT-base-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BERT-large-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Roberta-base-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Roberta-large-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Distilbert-base-nli-stsb-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BERT-base-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BERT-large-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>roberta-base-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>roberta-large-nli-mean-tokens</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>distilbert-base-nli-mean-tokens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:bevel/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:upDownBars>
-          <c:gapWidth val="150"/>
-          <c:upBars>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:upBars>
-          <c:downBars>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="b3b3b3"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:downBars>
-        </c:upDownBars>
-        <c:axId val="63734809"/>
-        <c:axId val="913126"/>
-      </c:stockChart>
-      <c:dateAx>
-        <c:axId val="63734809"/>
+        <c:axId val="94977873"/>
+        <c:axId val="81692245"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="94977873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="913126"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="913126"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
@@ -607,41 +622,111 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63734809"/>
+        <c:crossAx val="81692245"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81692245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>t1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.23244363046807"/>
+              <c:y val="0.524247299471386"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94977873"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="f6f9d4"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -658,16 +743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>646560</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -675,8 +760,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4639680" y="1188360"/>
-        <a:ext cx="9701640" cy="6239520"/>
+        <a:off x="3722760" y="38160"/>
+        <a:ext cx="11990160" cy="7831440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -697,10 +782,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
   </cols>

--- a/Presentations/Max_thresholds.xlsx
+++ b/Presentations/Max_thresholds.xlsx
@@ -15,6 +15,18 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$C$2:$C$13</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Method</t>
   </si>
@@ -102,6 +114,33 @@
   </si>
   <si>
     <t>distilbert-base-nli-mean-tokens</t>
+  </si>
+  <si>
+    <t>bert-base-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>bert-large-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>roberta-base-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>roberta-large-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>distilbert-base-nli-stsb-mean-tokens</t>
+  </si>
+  <si>
+    <t>bert-base-nli-mean-tokens</t>
+  </si>
+  <si>
+    <t>bert-large-nli-mean-tokens</t>
+  </si>
+  <si>
+    <t>fuzzy wuzzy</t>
+  </si>
+  <si>
+    <t>word2vec</t>
   </si>
 </sst>
 </file>
@@ -498,7 +537,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -761,6 +799,1222 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fuzzy wuzzy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bert-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bert-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>roberta-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>roberta-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>distilbert-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bert-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bert-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roberta-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>roberta-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>distilbert-base-nli-mean-tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EED6-490C-A3CC-716905725E23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fuzzy wuzzy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bert-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bert-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>roberta-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>roberta-large-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>distilbert-base-nli-stsb-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bert-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bert-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roberta-base-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>roberta-large-nli-mean-tokens</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>distilbert-base-nli-mean-tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EED6-490C-A3CC-716905725E23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="224721743"/>
+        <c:axId val="224706351"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="224721743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224706351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224706351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Threshods</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224721743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -779,6 +2033,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509586</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1229,10 +2518,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1247,7 +2539,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>0.05</v>
@@ -1258,7 +2550,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>0.7</v>
@@ -1269,7 +2561,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0.85</v>
@@ -1280,7 +2572,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>0.85</v>
@@ -1291,7 +2583,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>0.85</v>
@@ -1302,7 +2594,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>0.85</v>
@@ -1313,7 +2605,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>0.85</v>
@@ -1324,7 +2616,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>0.9</v>
@@ -1335,7 +2627,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>0.75</v>
@@ -1379,5 +2671,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Presentations/Max_thresholds.xlsx
+++ b/Presentations/Max_thresholds.xlsx
@@ -15,18 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$2:$C$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$C$2:$C$13</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -2518,7 +2506,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
